--- a/Courier FDBO/Surse de date/3_Destinatari.xlsx
+++ b/Courier FDBO/Surse de date/3_Destinatari.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E91219-F18A-44FE-BF03-EDCA74C79E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060FB631-5EF0-4848-91F0-726D8BDC785A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DESTINATARI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>ID_DESTINATAR</t>
   </si>
@@ -98,6 +111,126 @@
   </si>
   <si>
     <t>0772772615</t>
+  </si>
+  <si>
+    <t>Croitoru</t>
+  </si>
+  <si>
+    <t>Surugiu</t>
+  </si>
+  <si>
+    <t>Bucsa</t>
+  </si>
+  <si>
+    <t>Voinea</t>
+  </si>
+  <si>
+    <t>Grigoras</t>
+  </si>
+  <si>
+    <t>Stoica</t>
+  </si>
+  <si>
+    <t>Munteanu</t>
+  </si>
+  <si>
+    <t>Mititelu</t>
+  </si>
+  <si>
+    <t>S.C. PC Garage SRL</t>
+  </si>
+  <si>
+    <t>Ionescu II</t>
+  </si>
+  <si>
+    <t>Mihai</t>
+  </si>
+  <si>
+    <t>Ionela</t>
+  </si>
+  <si>
+    <t>Grigore</t>
+  </si>
+  <si>
+    <t>Larisa-Ioana</t>
+  </si>
+  <si>
+    <t>Iolanda</t>
+  </si>
+  <si>
+    <t>Marian</t>
+  </si>
+  <si>
+    <t>Paul-Lica</t>
+  </si>
+  <si>
+    <t>Ionel</t>
+  </si>
+  <si>
+    <t>S.C. MaxiPoint SRL</t>
+  </si>
+  <si>
+    <t>PFA George Ion</t>
+  </si>
+  <si>
+    <t>S.C. Service SRL</t>
+  </si>
+  <si>
+    <t>PFA Miron G</t>
+  </si>
+  <si>
+    <t>S.C. EntryPoint SRL</t>
+  </si>
+  <si>
+    <t>Nicolae Iorga 24</t>
+  </si>
+  <si>
+    <t>Alexandri 25</t>
+  </si>
+  <si>
+    <t>Uzinelor 2</t>
+  </si>
+  <si>
+    <t>Tehnicelor 2</t>
+  </si>
+  <si>
+    <t>George Cosbuc 1</t>
+  </si>
+  <si>
+    <t>Pantelor 2</t>
+  </si>
+  <si>
+    <t>Termicelor 15</t>
+  </si>
+  <si>
+    <t>Nicolae Iorga 1</t>
+  </si>
+  <si>
+    <t>Alexandria 5</t>
+  </si>
+  <si>
+    <t>Uzienelor 15</t>
+  </si>
+  <si>
+    <t>Scarilor 15</t>
+  </si>
+  <si>
+    <t>Termicelor 2</t>
+  </si>
+  <si>
+    <t>Pantelor 25</t>
+  </si>
+  <si>
+    <t>George Cosbuc 14</t>
+  </si>
+  <si>
+    <t>MEDIU</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Rural</t>
   </si>
 </sst>
 </file>
@@ -459,16 +592,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="5" max="6" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,10 +624,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -505,10 +647,13 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -525,10 +670,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -545,10 +693,13 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -565,10 +716,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>719133032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -585,10 +739,338 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>530183</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>237260</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>237261</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>307060</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>627246</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>80539</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>707020</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>700950</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>700934</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>720001</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>435612</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>510003</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>717247</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>627246</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>307060</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>